--- a/Шаблон соревнований.xlsx
+++ b/Шаблон соревнований.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voyte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Projects\Scoreboard_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,9 +49,6 @@
     <t>Пришел</t>
   </si>
   <si>
-    <t>Вес кат</t>
-  </si>
-  <si>
     <t>Группа</t>
   </si>
   <si>
@@ -124,7 +121,10 @@
     <t>Таиров Дамир</t>
   </si>
   <si>
-    <t>Побед</t>
+    <t>Весовая_категория</t>
+  </si>
+  <si>
+    <t>Побед|Встреч</t>
   </si>
 </sst>
 </file>
@@ -509,13 +509,14 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
     <col min="8" max="8" width="20.7265625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
@@ -534,184 +535,184 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>33288</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>43534</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>38384</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>38444</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>38902</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>38058</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Шаблон соревнований.xlsx
+++ b/Шаблон соревнований.xlsx
@@ -35,41 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Спортсмен</t>
   </si>
   <si>
-    <t>Год рождения</t>
-  </si>
-  <si>
-    <t>Оплата</t>
-  </si>
-  <si>
-    <t>Пришел</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
     <t>Место</t>
   </si>
   <si>
     <t>Команда</t>
   </si>
   <si>
-    <t>Наставник</t>
-  </si>
-  <si>
     <t>Ананьев Матвей Денисович</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Макаров Егор Андреевич</t>
   </si>
   <si>
@@ -79,9 +58,6 @@
     <t xml:space="preserve">Химки 31 школа  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ибрагимов Лёми </t>
-  </si>
-  <si>
     <t>Иванов Иван Иванович</t>
   </si>
   <si>
@@ -106,37 +82,30 @@
     <t>СОШ №582</t>
   </si>
   <si>
-    <t>Антонов Алексей</t>
-  </si>
-  <si>
-    <t>Смелов Егор</t>
-  </si>
-  <si>
-    <t>Шмелев Вячислав</t>
-  </si>
-  <si>
-    <t>Друзь Иван</t>
-  </si>
-  <si>
-    <t>Таиров Дамир</t>
-  </si>
-  <si>
-    <t>Весовая_категория</t>
-  </si>
-  <si>
-    <t>Побед|Встреч</t>
+    <t>Побед|Поражений</t>
+  </si>
+  <si>
+    <t>Весовая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -161,16 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,214 +472,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>33288</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43534</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>38384</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>38444</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>38902</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C7" s="1">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>38058</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Шаблон соревнований.xlsx
+++ b/Шаблон соревнований.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Projects\Scoreboard_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Projects\Scoreboard_2\Scoreboard_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAC1BC-AB0E-460B-836B-C6C10F96CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -91,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,23 +461,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +506,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -528,7 +518,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -540,7 +530,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -552,7 +542,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -564,7 +554,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>

--- a/Шаблон соревнований.xlsx
+++ b/Шаблон соревнований.xlsx
@@ -8,81 +8,324 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Projects\Scoreboard_2\Scoreboard_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAC1BC-AB0E-460B-836B-C6C10F96CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A245FE6-023E-435C-A71C-32293D705E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="94">
   <si>
     <t>Спортсмен</t>
   </si>
   <si>
-    <t>Место</t>
-  </si>
-  <si>
     <t>Команда</t>
   </si>
   <si>
-    <t>Ананьев Матвей Денисович</t>
-  </si>
-  <si>
-    <t>Макаров Егор Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одинцовская СОШ 3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Химки 31 школа  </t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>Сидоров Петр Сергеевич</t>
-  </si>
-  <si>
-    <t>Соловьев Андрей Петрович</t>
-  </si>
-  <si>
-    <t>Сорокин Алексей Александрович</t>
-  </si>
-  <si>
-    <t>МБОУ СОШ 6</t>
-  </si>
-  <si>
-    <t>Лицей №7</t>
-  </si>
-  <si>
-    <t>Гимназия ДГТУ</t>
-  </si>
-  <si>
-    <t>СОШ №582</t>
-  </si>
-  <si>
-    <t>Побед|Поражений</t>
-  </si>
-  <si>
-    <t>Весовая</t>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Присакарь Марк Викторович </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Шк. Тамерлана Башаева (Белорусская 12)</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>Ксенофонтов Серафим Александрович</t>
+  </si>
+  <si>
+    <t>Булыга Лев</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов Михаил Дмитриевич </t>
+  </si>
+  <si>
+    <t>Барский Марк</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Хрипков Александр Захарович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верещагин Юрий Алексеевич </t>
+  </si>
+  <si>
+    <t>Одинцовская СОШ 3 ПН СР ПТ</t>
+  </si>
+  <si>
+    <t>Ашугатоян Давит Борисович</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Таларович Лев Растиславович</t>
+  </si>
+  <si>
+    <t>Орлов Артем Витальевич</t>
+  </si>
+  <si>
+    <t>Чермных Виктор Игоревич</t>
+  </si>
+  <si>
+    <t>Одинцовская СОШ 3 ВТ ЧТ СБ</t>
+  </si>
+  <si>
+    <t>Наумов Валерий Александрович</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Кайнарян Даниэль Константинович</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Прокопович Михаил Иванович</t>
+  </si>
+  <si>
+    <t>Бибик Георгий Романович</t>
+  </si>
+  <si>
+    <t>Оболенский Юрий Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петров Константин Эдуардович </t>
+  </si>
+  <si>
+    <t>Долматова Екатерина</t>
+  </si>
+  <si>
+    <t>Гимназия Сколково</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бекренева Мелания </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левова Кира </t>
+  </si>
+  <si>
+    <t>Прилипко Андрей</t>
+  </si>
+  <si>
+    <t>Аминев Вадим</t>
+  </si>
+  <si>
+    <t>Сандуляк Александр</t>
+  </si>
+  <si>
+    <t>Лякишев Матвей Федорович</t>
+  </si>
+  <si>
+    <t>Беликов Аркадий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корзин Савва </t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Хадисова Белла</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Бакальчук Тимур</t>
+  </si>
+  <si>
+    <t>Озеров Михаил Дмитриевич</t>
+  </si>
+  <si>
+    <t>Почечун Григорий Игоревич</t>
+  </si>
+  <si>
+    <t>Бутаев Алан</t>
+  </si>
+  <si>
+    <t>Школа №31 г. Химки</t>
+  </si>
+  <si>
+    <t>Бурханов Даниил</t>
+  </si>
+  <si>
+    <t>Лучак Лев Игоревич</t>
+  </si>
+  <si>
+    <t>ОЦ Логос</t>
+  </si>
+  <si>
+    <t>Пятанов Леон Юрьевич</t>
+  </si>
+  <si>
+    <t>Шамало Матвей Игоревич</t>
+  </si>
+  <si>
+    <t>Ким Максим Алексеевич</t>
+  </si>
+  <si>
+    <t>Гришко Матвей Вадимович</t>
+  </si>
+  <si>
+    <t>Кот Егор Николаевич</t>
+  </si>
+  <si>
+    <t>Попа Кирилл Маринович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байрамуков Азрет Асланович </t>
+  </si>
+  <si>
+    <t>Бойцова Анастасия</t>
+  </si>
+  <si>
+    <t>Шк. Тамерлана Башаева (ОЦ "Багратион")</t>
+  </si>
+  <si>
+    <t>Аветисян Артур</t>
+  </si>
+  <si>
+    <t>Бондарев Ярослав</t>
+  </si>
+  <si>
+    <t>Ивченко Дмитрий</t>
+  </si>
+  <si>
+    <t>Пирожков Михаил</t>
+  </si>
+  <si>
+    <t>Чигинцев Даниил</t>
+  </si>
+  <si>
+    <t>Кузьмичёнок Мирон</t>
+  </si>
+  <si>
+    <t>Вычик Лев</t>
+  </si>
+  <si>
+    <t>Дерюшев Иван</t>
+  </si>
+  <si>
+    <t>Иванов Глеб</t>
+  </si>
+  <si>
+    <t>Игитян Рафаэль</t>
+  </si>
+  <si>
+    <t>Исмаилов Абдурахман</t>
+  </si>
+  <si>
+    <t>Поломарчук Матвей</t>
+  </si>
+  <si>
+    <t>Домшинский Данила</t>
+  </si>
+  <si>
+    <t>Рогов Марк</t>
+  </si>
+  <si>
+    <t>Тристан Иван</t>
+  </si>
+  <si>
+    <t>Николаев Платон</t>
+  </si>
+  <si>
+    <t>Степанов Артём</t>
+  </si>
+  <si>
+    <t>Михайлов Лев</t>
+  </si>
+  <si>
+    <t>Комаров Марк</t>
+  </si>
+  <si>
+    <t>Попко Мирон</t>
+  </si>
+  <si>
+    <t>Гирин Александр</t>
+  </si>
+  <si>
+    <t>Громов Шамиль</t>
+  </si>
+  <si>
+    <t>Морарь Матвей</t>
+  </si>
+  <si>
+    <t>Галстян Роман</t>
+  </si>
+  <si>
+    <t>Пискарев Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Янчев Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Ананьин Иван</t>
+  </si>
+  <si>
+    <t>Бабаев Самуэль</t>
+  </si>
+  <si>
+    <t>Флоров Марк</t>
+  </si>
+  <si>
+    <t>Биннатов Али</t>
+  </si>
+  <si>
+    <t>Симонян Марк</t>
+  </si>
+  <si>
+    <t>Возрастная_категория</t>
+  </si>
+  <si>
+    <t>Весовая_категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,22 +336,64 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,24 +401,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="1 Блок (копия)-style" pivot="0" count="4" xr9:uid="{ACC22B76-7F08-43D2-9DD6-977F9B5D0B5F}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -462,109 +862,1461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="20.296875" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43651</v>
+      </c>
+      <c r="C3" s="7">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44077</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>43780</v>
+      </c>
+      <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44173</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43833</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
+        <v>43573</v>
+      </c>
+      <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43714</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43527</v>
+      </c>
+      <c r="C11" s="7">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44071</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43859</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43736</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43790</v>
+      </c>
+      <c r="C15" s="7">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C16" s="3">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43677</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43698</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <v>43706</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44138</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6">
+        <v>43935</v>
+      </c>
+      <c r="C21" s="15">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43901</v>
+      </c>
+      <c r="C22" s="3">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6">
+        <v>43423</v>
+      </c>
+      <c r="C23" s="7">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43506</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6">
+        <v>43582</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="16">
+        <v>43751</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="17">
+        <v>44125</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="16">
+        <v>44189</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="17">
+        <v>44001</v>
+      </c>
+      <c r="C29" s="7">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="16">
+        <v>43570</v>
+      </c>
+      <c r="C30" s="3">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="6">
+        <v>43560</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="16">
+        <v>44147</v>
+      </c>
+      <c r="C32" s="3">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="17">
+        <v>43741</v>
+      </c>
+      <c r="C33" s="7">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="16">
+        <v>43991</v>
+      </c>
+      <c r="C34" s="3">
+        <v>24</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="17">
+        <v>44126</v>
+      </c>
+      <c r="C35" s="7">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="16">
+        <v>43625</v>
+      </c>
+      <c r="C36" s="3">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6">
+        <v>43687</v>
+      </c>
+      <c r="C37" s="7">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43782</v>
+      </c>
+      <c r="C38" s="3">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="6">
+        <v>43510</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43903</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="6">
+        <v>43821</v>
+      </c>
+      <c r="C41" s="7">
+        <v>22</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="F41" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43832</v>
+      </c>
+      <c r="C42" s="3">
         <v>22</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="6">
+        <v>43970</v>
+      </c>
+      <c r="C43" s="7">
+        <v>16</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43801</v>
+      </c>
+      <c r="C44" s="3">
         <v>22</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="E44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="6">
+        <v>43774</v>
+      </c>
+      <c r="C45" s="7">
         <v>22</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43973</v>
+      </c>
+      <c r="C46" s="3">
+        <v>22</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="6">
+        <v>43847</v>
+      </c>
+      <c r="C47" s="7">
+        <v>16</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43799</v>
+      </c>
+      <c r="C48" s="3">
+        <v>26</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="6">
+        <v>43651</v>
+      </c>
+      <c r="C49" s="7">
+        <v>24</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C50" s="3">
+        <v>26</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="6">
+        <v>43801</v>
+      </c>
+      <c r="C51" s="7">
+        <v>22</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44081</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="6">
+        <v>43600</v>
+      </c>
+      <c r="C53" s="7">
+        <v>20</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43536</v>
+      </c>
+      <c r="C54" s="3">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="6">
+        <v>43729</v>
+      </c>
+      <c r="C55" s="7">
+        <v>16</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43673</v>
+      </c>
+      <c r="C56" s="3">
+        <v>24</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="6">
+        <v>43604</v>
+      </c>
+      <c r="C57" s="7">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43711</v>
+      </c>
+      <c r="C58" s="3">
+        <v>26</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="6">
+        <v>43631</v>
+      </c>
+      <c r="C59" s="7">
+        <v>20</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C60" s="3">
+        <v>22</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="6">
+        <v>43926</v>
+      </c>
+      <c r="C61" s="7">
+        <v>24</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44159</v>
+      </c>
+      <c r="C62" s="3">
+        <v>24</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="6">
+        <v>43633</v>
+      </c>
+      <c r="C63" s="7">
+        <v>20</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C64" s="3">
+        <v>26</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44002</v>
+      </c>
+      <c r="C65" s="15">
+        <v>22</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44120</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="6">
+        <v>43595</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="19" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43819</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="6">
+        <v>43667</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43489</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44115</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A72" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="19" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="6">
+        <v>43697</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
